--- a/Feature-Analysis/Resize Feature/s_18_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_18_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58342592593</v>
+        <v>738157.58342592593</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58405092591</v>
+        <v>738157.58405092591</v>
       </c>
       <c r="C3" s="0">
         <v>53.999998793005943</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58439814812</v>
+        <v>738157.58439814812</v>
       </c>
       <c r="C4" s="0">
         <v>83.9999970048666</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58472222218</v>
+        <v>738157.58472222218</v>
       </c>
       <c r="C5" s="0">
         <v>111.9999960064888</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58509259264</v>
+        <v>738157.58509259264</v>
       </c>
       <c r="C6" s="0">
         <v>144.00000348687172</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.58542824071</v>
+        <v>738157.58542824071</v>
       </c>
       <c r="C7" s="0">
         <v>172.99999706447124</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.58578703704</v>
+        <v>738157.58578703704</v>
       </c>
       <c r="C8" s="0">
         <v>203.99999991059303</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.5861111111</v>
+        <v>738157.5861111111</v>
       </c>
       <c r="C9" s="0">
         <v>231.99999891221523</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.58648148144</v>
+        <v>738157.58648148144</v>
       </c>
       <c r="C10" s="0">
         <v>263.99999633431435</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.58715277782</v>
+        <v>738157.58715277782</v>
       </c>
       <c r="C11" s="0">
         <v>322.00000360608101</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.58751157403</v>
+        <v>738157.58751157403</v>
       </c>
       <c r="C12" s="0">
         <v>352.99999639391899</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.58787037036</v>
+        <v>738157.58787037036</v>
       </c>
       <c r="C13" s="0">
         <v>383.99999924004078</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.58820601855</v>
+        <v>738157.58820601855</v>
       </c>
       <c r="C14" s="0">
         <v>413.00000287592411</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.58855324076</v>
+        <v>738157.58855324076</v>
       </c>
       <c r="C15" s="0">
         <v>443.00000108778477</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.58890046296</v>
+        <v>738157.58890046296</v>
       </c>
       <c r="C16" s="0">
         <v>472.99999929964542</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.58924768516</v>
+        <v>738157.58924768516</v>
       </c>
       <c r="C17" s="0">
         <v>502.99999751150608</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.58960648149</v>
+        <v>738157.58960648149</v>
       </c>
       <c r="C18" s="0">
         <v>534.00000035762787</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.58994212968</v>
+        <v>738157.58994212968</v>
       </c>
       <c r="C19" s="0">
         <v>563.0000039935112</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59028935188</v>
+        <v>738157.59028935188</v>
       </c>
       <c r="C20" s="0">
         <v>593.00000220537186</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59065972222</v>
+        <v>738157.59065972222</v>
       </c>
       <c r="C21" s="0">
         <v>624.99999962747097</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59130787035</v>
+        <v>738157.59130787035</v>
       </c>
       <c r="C22" s="0">
         <v>680.99999763071537</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59164351854</v>
+        <v>738157.59164351854</v>
       </c>
       <c r="C23" s="0">
         <v>710.0000012665987</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.5919675926</v>
+        <v>738157.5919675926</v>
       </c>
       <c r="C24" s="0">
         <v>738.0000002682209</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59232638893</v>
+        <v>738157.59232638893</v>
       </c>
       <c r="C25" s="0">
         <v>769.00000311434269</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59267361113</v>
+        <v>738157.59267361113</v>
       </c>
       <c r="C26" s="0">
         <v>799.00000132620335</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59300925932</v>
+        <v>738157.59300925932</v>
       </c>
       <c r="C27" s="0">
         <v>828.00000496208668</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59335648152</v>
+        <v>738157.59335648152</v>
       </c>
       <c r="C28" s="0">
         <v>858.00000317394733</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59372685186</v>
+        <v>738157.59372685186</v>
       </c>
       <c r="C29" s="0">
         <v>890.00000059604645</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59440972225</v>
+        <v>738157.59440972225</v>
       </c>
       <c r="C30" s="0">
         <v>949.00000244379044</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59476851847</v>
+        <v>738157.59476851847</v>
       </c>
       <c r="C31" s="0">
         <v>979.99999523162842</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59509259264</v>
+        <v>738157.59509259264</v>
       </c>
       <c r="C32" s="0">
         <v>1008.0000042915344</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59543981485</v>
+        <v>738157.59543981485</v>
       </c>
       <c r="C33" s="0">
         <v>1038.0000025033951</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.59579861106</v>
+        <v>738157.59579861106</v>
       </c>
       <c r="C34" s="0">
         <v>1068.9999952912331</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.59615740739</v>
+        <v>738157.59615740739</v>
       </c>
       <c r="C35" s="0">
         <v>1099.9999981373549</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.59649305558</v>
+        <v>738157.59649305558</v>
       </c>
       <c r="C36" s="0">
         <v>1129.0000017732382</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.59684027778</v>
+        <v>738157.59684027778</v>
       </c>
       <c r="C37" s="0">
         <v>1158.9999999850988</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.59718749998</v>
+        <v>738157.59718749998</v>
       </c>
       <c r="C38" s="0">
         <v>1188.9999981969595</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.59752314817</v>
+        <v>738157.59752314817</v>
       </c>
       <c r="C39" s="0">
         <v>1218.0000018328428</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.59789351851</v>
+        <v>738157.59789351851</v>
       </c>
       <c r="C40" s="0">
         <v>1249.9999992549419</v>
